--- a/assets/resources/datatables/excel/AssetsPath.xlsx
+++ b/assets/resources/datatables/excel/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A6FD9D-138A-4B38-BB2A-C81213119967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFF7F48-9B74-4837-94F4-499FECE2B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,648 +675,621 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Player.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Weapon.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Enemy.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Bullet.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectPlayerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择人物武器界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectPlayerScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择人物武器场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆弹专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌特工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookiePirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoutRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreatMagician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombDisEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+  </si>
+  <si>
+    <t>SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双管喷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleBarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D场景资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrassGround</t>
+  </si>
+  <si>
+    <t>GameScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMG子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左轮子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双管喷子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_WizardStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_DoubleBarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResurrectionView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景3</t>
+  </si>
+  <si>
+    <t>背景4</t>
+  </si>
+  <si>
+    <t>背景5</t>
+  </si>
+  <si>
+    <t>bgm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm3</t>
+  </si>
+  <si>
+    <t>bgm4</t>
+  </si>
+  <si>
+    <t>bgm5</t>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Arp.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Crash.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Drumbeat.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Lead.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Pad.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\countdown.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\DoubleBarrel.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷子射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\Explosion1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\lose.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\Pistol.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\Revolver.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\RPG.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\SMG.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\win.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\WizardStaff.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\zombie1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\zombie2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\zombie3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\hit.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\view\DebugView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\TipsView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\SureView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\LoadView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\CompleteView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\GameView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\LanguageView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\LevelUpView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\LoseView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\LuckyBoxView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\MainView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\MyInfoView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\PauseView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\PrivacyAgreementView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\RankingView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\SettingView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\ShopView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\SignInView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\SelectPlayerView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\view\ResurrectionView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\scene\MainScene.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\scene\SelectPlayerScene.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\scene\GameScene.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\skybox\Sky_Anime_03_Day_a.lmat</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\skybox\Sky_Anime_11_morning_a.lmat</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\skybox\Sky_LowPoly_01_Day_a.lmat</t>
+  </si>
+  <si>
     <t>assets\resources\res3d\prefab\zombie\Zombie.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>assets\resources\res3d\prefab\player\BusinessMan.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打工人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BusinessMan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\BombDisEX.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\GreatMagician.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\Kingsman.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\ScoutRobot.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\RookiePirate.lh</t>
   </si>
   <si>
     <t>assets\resources\res3d\prefab\weapon\Pistol.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\datatables\Player.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\datatables\Weapon.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\datatables\Enemy.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\datatables\Bullet.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectPlayerView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择人物武器界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectPlayerScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择人物武器场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\scene\MainScene.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkyBox1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空盒1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\skybox\Sky_Anime_03_Day_a.lmat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空盒2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空盒3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkyBox2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkyBox3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\skybox\Sky_Anime_11_morning_a.lmat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\skybox\Sky_LowPoly_01_Day_a.lmat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\scene\SelectPlayerScene.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆弹专家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大魔法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王牌特工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斥候机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜鸟海盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RookiePirate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScoutRobot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kingsman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreatMagician</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombDisEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\player\BombDisEX.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\player\GreatMagician.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\player\Kingsman.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\player\RookiePirate.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\player\ScoutRobot.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖</t>
-  </si>
-  <si>
-    <t>SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双管喷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizardStaff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoubleBarrel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\RPG.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\WizardStaff.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\SMG.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\Revolver.lh</t>
   </si>
   <si>
     <t>assets\resources\res3d\prefab\weapon\DoubleBarrel.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\weapon\Revolver.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\weapon\RPG.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\weapon\SMG.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\weapon\WizardStaff.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D场景资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_Pistol.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_RPG.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_WizardStaff.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_SMG.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_Revolver.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_DoubleBarrel.lh</t>
   </si>
   <si>
     <t>assets\resources\res3d\prefab\ground\GrassGround.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrassGround</t>
-  </si>
-  <si>
-    <t>GameScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\scene\GameScene.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手枪子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPG子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMG子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左轮子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双管喷子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\bullet\Bullet_DoubleBarrel.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\bullet\Bullet_Pistol.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\bullet\Bullet_Revolver.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\bullet\Bullet_RPG.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\bullet\Bullet_WizardStaff.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\res3d\prefab\bullet\Bullet_SMG.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_RPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_WizardStaff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Revolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_DoubleBarrel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResurrectionView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声音资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景3</t>
-  </si>
-  <si>
-    <t>背景4</t>
-  </si>
-  <si>
-    <t>背景5</t>
-  </si>
-  <si>
-    <t>bgm1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm3</t>
-  </si>
-  <si>
-    <t>bgm4</t>
-  </si>
-  <si>
-    <t>bgm5</t>
-  </si>
-  <si>
-    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Arp.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Crash.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Drumbeat.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Lead.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Pad.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\countdown.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>countdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\DoubleBarrel.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷子射击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\Explosion1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explosion1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\lose.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\Pistol.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\Revolver.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\RPG.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\SMG.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\win.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\WizardStaff.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\zombie1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\zombie2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\zombie3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丧尸1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丧尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丧尸3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zombie1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zombie2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zombie3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\sound\hit.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被咬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi't</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>assets\resources\res3d\prefab\vfx\Explode1.lh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\view\DebugView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\TipsView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\SureView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\LoadView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\CompleteView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\GameView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\LanguageView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\LevelUpView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\LoseView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\LuckyBoxView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\MainView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\MyInfoView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\PauseView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\PrivacyAgreementView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\RankingView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\SettingView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\ShopView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\SignInView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\SelectPlayerView.lh</t>
-  </si>
-  <si>
-    <t>assets\resources\view\ResurrectionView.lh</t>
   </si>
 </sst>
 </file>
@@ -1643,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1793,7 +1766,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1844,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1861,7 +1834,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1878,7 +1851,7 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1895,7 +1868,7 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1912,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1929,7 +1902,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1946,7 +1919,7 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1963,7 +1936,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1980,7 +1953,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1997,7 +1970,7 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2014,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2031,7 +2004,7 @@
         <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2048,7 +2021,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2065,7 +2038,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2082,7 +2055,7 @@
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2099,7 +2072,7 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2116,7 +2089,7 @@
         <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2127,13 +2100,13 @@
         <v>1021</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2144,13 +2117,13 @@
         <v>1022</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2577,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2585,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2593,13 +2566,13 @@
         <v>2501</v>
       </c>
       <c r="C59" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E59" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2610,13 +2583,13 @@
         <v>2502</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2627,13 +2600,13 @@
         <v>2503</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2644,13 +2617,13 @@
         <v>2504</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2661,13 +2634,13 @@
         <v>2505</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2678,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2686,13 +2659,13 @@
         <v>2601</v>
       </c>
       <c r="C65" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2703,13 +2676,13 @@
         <v>2602</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="E66" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2720,13 +2693,13 @@
         <v>2603</v>
       </c>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E67" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2737,13 +2710,13 @@
         <v>2604</v>
       </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E68" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2754,13 +2727,13 @@
         <v>2605</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2771,13 +2744,13 @@
         <v>2606</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2788,13 +2761,13 @@
         <v>2607</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E71" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2805,13 +2778,13 @@
         <v>2608</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2822,13 +2795,13 @@
         <v>2609</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D73" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2839,13 +2812,13 @@
         <v>2610</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2856,13 +2829,13 @@
         <v>2611</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E75" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2873,13 +2846,13 @@
         <v>2612</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2890,13 +2863,13 @@
         <v>2613</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D77" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2907,13 +2880,13 @@
         <v>2614</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3051,13 +3024,13 @@
         <v>3008</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3068,13 +3041,13 @@
         <v>3009</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3085,13 +3058,13 @@
         <v>3010</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D89" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" t="s">
         <v>180</v>
-      </c>
-      <c r="E89" t="s">
-        <v>183</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3102,13 +3075,13 @@
         <v>3011</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D90" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
         <v>181</v>
-      </c>
-      <c r="E90" t="s">
-        <v>184</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3144,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3166,7 +3139,7 @@
         <v>154</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3177,13 +3150,13 @@
         <v>5002</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E96" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3194,13 +3167,13 @@
         <v>5003</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D97" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3211,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3219,13 +3192,13 @@
         <v>5101</v>
       </c>
       <c r="C99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3236,13 +3209,13 @@
         <v>5102</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3253,13 +3226,13 @@
         <v>5103</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E101" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3284,7 +3257,7 @@
         <v>164</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3295,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -3303,13 +3276,13 @@
         <v>6101</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -3320,13 +3293,13 @@
         <v>6102</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E106" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3337,13 +3310,13 @@
         <v>6103</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E107" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -3354,13 +3327,13 @@
         <v>6104</v>
       </c>
       <c r="C108" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D108" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -3371,13 +3344,13 @@
         <v>6105</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -3388,13 +3361,13 @@
         <v>6106</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E110" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3405,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3413,13 +3386,13 @@
         <v>6201</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3430,13 +3403,13 @@
         <v>6202</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D113" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E113" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3447,13 +3420,13 @@
         <v>6203</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D114" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E114" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -3464,13 +3437,13 @@
         <v>6204</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D115" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3481,13 +3454,13 @@
         <v>6205</v>
       </c>
       <c r="C116" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -3498,13 +3471,13 @@
         <v>6206</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D117" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E117" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -3515,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3523,13 +3496,13 @@
         <v>6301</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D119" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E119" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3540,13 +3513,13 @@
         <v>6302</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D120" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E120" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -3557,13 +3530,13 @@
         <v>6303</v>
       </c>
       <c r="C121" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E121" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3574,13 +3547,13 @@
         <v>6304</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D122" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E122" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3591,13 +3564,13 @@
         <v>6305</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D123" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E123" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3608,13 +3581,13 @@
         <v>6306</v>
       </c>
       <c r="C124" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D124" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -3625,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -3636,13 +3609,13 @@
         <v>6701</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D126" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E126" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -3653,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3661,13 +3634,13 @@
         <v>6801</v>
       </c>
       <c r="C128" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D128" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="E128" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="F128">
         <v>1</v>
